--- a/Project/Project- 1 Saucedemo.xlsx
+++ b/Project/Project- 1 Saucedemo.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="Test case" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="258">
   <si>
     <t>Discription</t>
   </si>
@@ -241,9 +243,6 @@
     <t>while clicking on continue button Its working</t>
   </si>
   <si>
-    <t>While clicking on finish button Its not working working</t>
-  </si>
-  <si>
     <t>Add to Cart icon is not propely placed but its working properly</t>
   </si>
   <si>
@@ -257,13 +256,548 @@
   </si>
   <si>
     <t>User 6</t>
+  </si>
+  <si>
+    <t>Test Id</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pre condition</t>
+  </si>
+  <si>
+    <t>Browser,internet &amp; webside must be in working condition</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>to open the website in proper working condition</t>
+  </si>
+  <si>
+    <t>as per expected result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button</t>
+  </si>
+  <si>
+    <t>User Name:standard_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>to open user dashboard with proper use details</t>
+  </si>
+  <si>
+    <t>its logged in but not to see user details</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Check login button null/blank</t>
+  </si>
+  <si>
+    <t>User Name:  Password:</t>
+  </si>
+  <si>
+    <t>to give me proper validation massage</t>
+  </si>
+  <si>
+    <t>Its given validation massage but not see proper details</t>
+  </si>
+  <si>
+    <t>User Name:standard_user Password:</t>
+  </si>
+  <si>
+    <t>User Name: Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Check login button with wrong value</t>
+  </si>
+  <si>
+    <t>User Name:gafsg Password:jdhdg</t>
+  </si>
+  <si>
+    <t>validation massage is correct but user name in red</t>
+  </si>
+  <si>
+    <t>validation massage is blank but password in red</t>
+  </si>
+  <si>
+    <t>validation massage is correct but can't see properly</t>
+  </si>
+  <si>
+    <t>Check login button with only Password username is blank</t>
+  </si>
+  <si>
+    <t>Check login button with only username but Password is blank</t>
+  </si>
+  <si>
+    <t>Check login button with white space</t>
+  </si>
+  <si>
+    <t>User Name:standard user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Check login button with only digit in username</t>
+  </si>
+  <si>
+    <t>User Name:1234 Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Check login button with only Character in username</t>
+  </si>
+  <si>
+    <t>User Name:hduudf Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Check login button with only Character in password</t>
+  </si>
+  <si>
+    <t>User Name: standard_userPassword: dfdfyua</t>
+  </si>
+  <si>
+    <t>Check login button with only special Character in Username</t>
+  </si>
+  <si>
+    <t>Check login button with only special Character in Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name: $%&amp;^%$ Password: </t>
+  </si>
+  <si>
+    <t>User Name:Password: %%$$#$%</t>
+  </si>
+  <si>
+    <t>Check login button with only digit in password</t>
+  </si>
+  <si>
+    <t>User Name: Password:12345</t>
+  </si>
+  <si>
+    <t>Check login button without space in username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:standarduserPassword: </t>
+  </si>
+  <si>
+    <t>Check login button without space in Password</t>
+  </si>
+  <si>
+    <t>User Name:Password: secretsauce</t>
+  </si>
+  <si>
+    <t>Check login button with 1st letter capital in Username</t>
+  </si>
+  <si>
+    <t>User Name:Standard_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>Check login button with 1st letter capital in Password</t>
+  </si>
+  <si>
+    <t>Check login button with all letter capital in Username</t>
+  </si>
+  <si>
+    <t>User Name:STANDARD_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:Standard_user Password: SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>Check login button with ALL capital in Password</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on side menu</t>
+  </si>
+  <si>
+    <t>Submenu list available whlie clicking on menubar</t>
+  </si>
+  <si>
+    <t>as per Expected Result</t>
+  </si>
+  <si>
+    <t>check side menu closing icon</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on side menu close Icon</t>
+  </si>
+  <si>
+    <t>while clicking on closing Icon it should work properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on all item menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when clicking on All item menu perticular Item menu list should view in details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when clicking on about menu perticular Item menu list should view in details </t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on Reset app state</t>
+  </si>
+  <si>
+    <t>when clicking on Reset app store its page should be referesh or reset</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on Add to cart Icon</t>
+  </si>
+  <si>
+    <t>when clicking on that icon its should directed to add to cart page</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on continue shopping button</t>
+  </si>
+  <si>
+    <t>while clicking on continue shopping button it should go back to home page</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on Fileteration option</t>
+  </si>
+  <si>
+    <t>all functionalityshould be work properly</t>
+  </si>
+  <si>
+    <t>all fuctionality is working properly expect drop down arrow</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on image</t>
+  </si>
+  <si>
+    <t>it should open page with proper Image &amp; detail</t>
+  </si>
+  <si>
+    <t>to open that page with proper detail &amp; it should added perticular product in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart </t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on remove</t>
+  </si>
+  <si>
+    <t>Remove functio is woring proper &amp; should be removed from cart</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on back to product</t>
+  </si>
+  <si>
+    <t>it should go to home page</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on Product Text</t>
+  </si>
+  <si>
+    <t>it should work properly</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button</t>
+  </si>
+  <si>
+    <t>it should directed to check out page with proper detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button 6) click on cancle </t>
+  </si>
+  <si>
+    <t>it should go back</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button 6) click on continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should go to check out overview page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should finish the process </t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button 6) click on Finish</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button 6) click on back to home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to go on home page </t>
+  </si>
+  <si>
+    <t>whlie clicking on social media Icon it should open in new tab</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Social media Icon</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on log out</t>
+  </si>
+  <si>
+    <t>whlie clicking on log out button it should go to log in page</t>
+  </si>
+  <si>
+    <t>User Name:locked_out_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>its not able to log in to the website</t>
+  </si>
+  <si>
+    <t>User Name:locked_out_user Password:</t>
+  </si>
+  <si>
+    <t>User Name: locked_out_user Password: dfdfyua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:lockedoutuserPassword: </t>
+  </si>
+  <si>
+    <t>User Name:Locked_out_userPassword: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:locked_out_user Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:LOCKED_OUT_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>As per expected result</t>
+  </si>
+  <si>
+    <t>User Name: problem_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: Password:</t>
+  </si>
+  <si>
+    <t>User Name: problem_user Password:</t>
+  </si>
+  <si>
+    <t>User Name: problem user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: problem_user Password: dfdfyua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:problemuseruser Password: </t>
+  </si>
+  <si>
+    <t>User Name: Problem_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:Standard_user Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:PROBLEM_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: problem_user Password: SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on side menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on All item menu </t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on reset app state</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on anywhere</t>
+  </si>
+  <si>
+    <t>while clicking anywhere in website it should be close side menu</t>
+  </si>
+  <si>
+    <t>all fuctionality is not working properly</t>
+  </si>
+  <si>
+    <t>while clicking on fileteration option its not working properly</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on image it should be open the detail page </t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image 5)Add to cart</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image 5)click on abck to home</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image 5)click on remove</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image 5)click on Product Text</t>
+  </si>
+  <si>
+    <t>while cliking on product text it seen deffent text</t>
+  </si>
+  <si>
+    <t>Check checkout button</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)click on Image 5)click on add to cart 6) click on check out button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while product is added to cart its should go to checkout process </t>
+  </si>
+  <si>
+    <t>Not working checkout process</t>
+  </si>
+  <si>
+    <t>User Name: performance_glitch_user
+standard_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: performance_glitch_user Password:</t>
+  </si>
+  <si>
+    <t>User Name:performance glitch user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: performance_glitch_user Password: dfdfyua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:performanceglitchuser Password: </t>
+  </si>
+  <si>
+    <t>User Name: Performance_glitch_userPassword: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:performance_glitch_user Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:PERFORMANCE_FLITCH_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: performance_glitch_userPassword: SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on side menu 5)Click on all item menu</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on side menu 5)Click on about menu</t>
+  </si>
+  <si>
+    <t>Remove function is working proper &amp; should be removed from cart</t>
+  </si>
+  <si>
+    <t>User Name: error_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: error_user Password:</t>
+  </si>
+  <si>
+    <t>User Name:error user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: error_user Password: dfdfyua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:erroruser Password: </t>
+  </si>
+  <si>
+    <t>User Name:Error_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:error_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:ERROR_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: error_user  Password: SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>while clicking on remove button it should be removed from cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionality not working </t>
+  </si>
+  <si>
+    <t>to go on check out page &amp; proper details can be fuilled up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will go on check out page but can not fill up details </t>
+  </si>
+  <si>
+    <t>while clicking on check out its working but cant fill up details</t>
+  </si>
+  <si>
+    <t>1)https://www.saucedemo.com/ 2)press enter Key 3)Click on log in Button 4)Click on add to cart 5)Click on checkout button 6)fill up inforamtion</t>
+  </si>
+  <si>
+    <t>While clicking on finish button Its not working</t>
+  </si>
+  <si>
+    <t>While clicking on finish button Its  not working</t>
+  </si>
+  <si>
+    <t>While clicking on back home button Its not available</t>
+  </si>
+  <si>
+    <t>User Name:visual_user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:visual_user Password:</t>
+  </si>
+  <si>
+    <t>User Name:visual user Password:secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name:visualuserPassword: </t>
+  </si>
+  <si>
+    <t>User Name:visual_userPassword: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:visual_user Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name:VISUAL_USER Password: Secret_sauce</t>
+  </si>
+  <si>
+    <t>User Name: visual_user Password: SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>While clicking on icon its open that page but it is not prorpely placed on page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be open same image </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +828,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +848,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -332,11 +878,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -368,6 +1035,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,11 +1886,11 @@
       <c r="A44" s="6">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>21</v>
+      <c r="C44" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,10 +2346,10 @@
       <c r="A88" s="6">
         <v>300</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1690,11 +2456,11 @@
       <c r="A98" s="6">
         <v>605</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>34</v>
+      <c r="C98" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +2493,7 @@
         <v>57</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1765,7 +2531,7 @@
     </row>
     <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,7 +2716,7 @@
         <v>33</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,7 +2727,7 @@
         <v>52</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,4 +2798,6398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>300</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>400</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>401</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>402</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>403</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>404</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>405</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>406</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
+        <v>407</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>408</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>409</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>410</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>411</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <v>412</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
+        <v>413</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
+        <v>414</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>500</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <v>600</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>1</v>
+      </c>
+      <c r="B48" s="28">
+        <v>1</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>12</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>13</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>14</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>15</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>16</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>17</v>
+      </c>
+      <c r="B64" s="7">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>19</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:10" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="29">
+        <v>1</v>
+      </c>
+      <c r="B69" s="28">
+        <v>1</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7">
+        <v>2</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>7</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>9</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>11</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>12</v>
+      </c>
+      <c r="B80" s="7">
+        <v>2</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>13</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>14</v>
+      </c>
+      <c r="B82" s="7">
+        <v>2</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>15</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>16</v>
+      </c>
+      <c r="B84" s="7">
+        <v>2</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>17</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>18</v>
+      </c>
+      <c r="B86" s="7">
+        <v>2</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>19</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>21</v>
+      </c>
+      <c r="B89" s="7">
+        <v>50</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>22</v>
+      </c>
+      <c r="B90" s="7">
+        <v>60</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>23</v>
+      </c>
+      <c r="B91" s="7">
+        <v>70</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>24</v>
+      </c>
+      <c r="B92" s="6">
+        <v>71</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
+      <c r="B93" s="6">
+        <v>80</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>26</v>
+      </c>
+      <c r="B94" s="6">
+        <v>81</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>27</v>
+      </c>
+      <c r="B95" s="7">
+        <v>82</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>28</v>
+      </c>
+      <c r="B96" s="7">
+        <v>83</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>29</v>
+      </c>
+      <c r="B97" s="23">
+        <v>84</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>30</v>
+      </c>
+      <c r="B98" s="23">
+        <v>84.1</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
+        <v>31</v>
+      </c>
+      <c r="B99" s="23">
+        <v>85</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I99" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>32</v>
+      </c>
+      <c r="B100" s="7">
+        <v>86</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>33</v>
+      </c>
+      <c r="B101" s="7">
+        <v>86.1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>34</v>
+      </c>
+      <c r="B102" s="8">
+        <v>90</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>35</v>
+      </c>
+      <c r="B103" s="8">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="54"/>
+    </row>
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="38">
+        <v>1</v>
+      </c>
+      <c r="B106" s="37">
+        <v>1</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="16">
+        <v>2</v>
+      </c>
+      <c r="B107" s="21">
+        <v>2</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>3</v>
+      </c>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="16">
+        <v>4</v>
+      </c>
+      <c r="B109" s="21">
+        <v>2</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="16">
+        <v>5</v>
+      </c>
+      <c r="B110" s="21">
+        <v>2</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="16">
+        <v>6</v>
+      </c>
+      <c r="B111" s="21">
+        <v>2</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>7</v>
+      </c>
+      <c r="B112" s="21">
+        <v>2</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="16">
+        <v>8</v>
+      </c>
+      <c r="B113" s="21">
+        <v>2</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="16">
+        <v>9</v>
+      </c>
+      <c r="B114" s="21">
+        <v>2</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="16">
+        <v>10</v>
+      </c>
+      <c r="B115" s="21">
+        <v>2</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="16">
+        <v>11</v>
+      </c>
+      <c r="B116" s="21">
+        <v>2</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="16">
+        <v>12</v>
+      </c>
+      <c r="B117" s="21">
+        <v>2</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="16">
+        <v>13</v>
+      </c>
+      <c r="B118" s="21">
+        <v>2</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="16">
+        <v>14</v>
+      </c>
+      <c r="B119" s="21">
+        <v>2</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="16">
+        <v>15</v>
+      </c>
+      <c r="B120" s="21">
+        <v>2</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="16">
+        <v>16</v>
+      </c>
+      <c r="B121" s="21">
+        <v>2</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="16">
+        <v>17</v>
+      </c>
+      <c r="B122" s="21">
+        <v>2</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="16">
+        <v>18</v>
+      </c>
+      <c r="B123" s="21">
+        <v>2</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="16">
+        <v>19</v>
+      </c>
+      <c r="B124" s="21">
+        <v>2</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="16">
+        <v>20</v>
+      </c>
+      <c r="B125" s="18">
+        <v>3</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="16">
+        <v>21</v>
+      </c>
+      <c r="B126" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="16">
+        <v>22</v>
+      </c>
+      <c r="B127" s="21">
+        <v>2000</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A128" s="16">
+        <v>23</v>
+      </c>
+      <c r="B128" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="16">
+        <v>24</v>
+      </c>
+      <c r="B129" s="18">
+        <v>3010</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="16">
+        <v>25</v>
+      </c>
+      <c r="B130" s="18">
+        <v>4000</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="16">
+        <v>26</v>
+      </c>
+      <c r="B131" s="18">
+        <v>4010</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A132" s="16">
+        <v>27</v>
+      </c>
+      <c r="B132" s="21">
+        <v>4020</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="16">
+        <v>28</v>
+      </c>
+      <c r="B133" s="18">
+        <v>4030</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="16">
+        <v>29</v>
+      </c>
+      <c r="B134" s="18">
+        <v>4040</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="16">
+        <v>30</v>
+      </c>
+      <c r="B135" s="18">
+        <v>4050</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H135" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I135" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="16">
+        <v>31</v>
+      </c>
+      <c r="B136" s="18">
+        <v>4060</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I136" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="16">
+        <v>32</v>
+      </c>
+      <c r="B137" s="18">
+        <v>4070</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I137" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="16">
+        <v>33</v>
+      </c>
+      <c r="B138" s="18">
+        <v>4080</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E138" s="16"/>
+      <c r="F138" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="16">
+        <v>34</v>
+      </c>
+      <c r="B139" s="18">
+        <v>4090</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="16">
+        <v>35</v>
+      </c>
+      <c r="B140" s="18">
+        <v>4100</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H140" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I140" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="16">
+        <v>36</v>
+      </c>
+      <c r="B141" s="18">
+        <v>4110</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I141" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="16">
+        <v>37</v>
+      </c>
+      <c r="B142" s="18">
+        <v>4120</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" s="16"/>
+      <c r="F142" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="16">
+        <v>38</v>
+      </c>
+      <c r="B143" s="18">
+        <v>4130</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H143" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I143" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="16">
+        <v>39</v>
+      </c>
+      <c r="B144" s="18">
+        <v>4140</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H144" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I144" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="16">
+        <v>40</v>
+      </c>
+      <c r="B145" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I145" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="16">
+        <v>41</v>
+      </c>
+      <c r="B146" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I146" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H150" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>6</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>7</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>8</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>9</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>10</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>11</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>12</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>13</v>
+      </c>
+      <c r="B162" s="3">
+        <v>2</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>14</v>
+      </c>
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>15</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>16</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>17</v>
+      </c>
+      <c r="B166" s="11">
+        <v>2</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>18</v>
+      </c>
+      <c r="B167" s="11">
+        <v>2</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>19</v>
+      </c>
+      <c r="B168" s="11">
+        <v>2</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>20</v>
+      </c>
+      <c r="B169" s="18">
+        <v>3</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F169" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I169" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>21</v>
+      </c>
+      <c r="B170" s="18">
+        <v>100</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>22</v>
+      </c>
+      <c r="B171" s="18">
+        <v>200</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>23</v>
+      </c>
+      <c r="B172" s="18">
+        <v>300</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>24</v>
+      </c>
+      <c r="B173" s="18">
+        <v>301</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I173" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>25</v>
+      </c>
+      <c r="B174" s="18">
+        <v>400</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>26</v>
+      </c>
+      <c r="B175" s="18">
+        <v>401</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F175" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I175" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>27</v>
+      </c>
+      <c r="B176" s="21">
+        <v>500</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>28</v>
+      </c>
+      <c r="B177" s="18">
+        <v>600</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>29</v>
+      </c>
+      <c r="B178" s="32">
+        <v>601</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>30</v>
+      </c>
+      <c r="B179" s="21">
+        <v>602</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I179" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>31</v>
+      </c>
+      <c r="B180" s="18">
+        <v>603</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F180" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H180" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>32</v>
+      </c>
+      <c r="B181" s="18">
+        <v>604</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H181" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>33</v>
+      </c>
+      <c r="B182" s="21">
+        <v>605</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>34</v>
+      </c>
+      <c r="B183" s="18">
+        <v>606</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H183" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>35</v>
+      </c>
+      <c r="B184" s="18">
+        <v>607</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>36</v>
+      </c>
+      <c r="B185" s="21">
+        <v>608</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>37</v>
+      </c>
+      <c r="B186" s="21">
+        <v>609</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>38</v>
+      </c>
+      <c r="B187" s="18">
+        <v>700</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F187" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>39</v>
+      </c>
+      <c r="B188" s="18">
+        <v>800</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="191" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44"/>
+      <c r="I191" s="45"/>
+    </row>
+    <row r="192" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="37">
+        <v>1</v>
+      </c>
+      <c r="B192" s="37">
+        <v>1</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E192" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F192" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G192" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I192" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="18">
+        <v>2</v>
+      </c>
+      <c r="B193" s="21">
+        <v>2</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H193" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I193" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194" s="18">
+        <v>3</v>
+      </c>
+      <c r="B194" s="21">
+        <v>2</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H194" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I194" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A195" s="18">
+        <v>4</v>
+      </c>
+      <c r="B195" s="21">
+        <v>2</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H195" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I195" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A196" s="18">
+        <v>5</v>
+      </c>
+      <c r="B196" s="21">
+        <v>2</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F196" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H196" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I196" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A197" s="18">
+        <v>6</v>
+      </c>
+      <c r="B197" s="21">
+        <v>2</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H197" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I197" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="18">
+        <v>7</v>
+      </c>
+      <c r="B198" s="21">
+        <v>2</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H198" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I198" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" s="18">
+        <v>8</v>
+      </c>
+      <c r="B199" s="21">
+        <v>2</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F199" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G199" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H199" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I199" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A200" s="18">
+        <v>9</v>
+      </c>
+      <c r="B200" s="21">
+        <v>2</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H200" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I200" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="18">
+        <v>10</v>
+      </c>
+      <c r="B201" s="21">
+        <v>2</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G201" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H201" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I201" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="18">
+        <v>11</v>
+      </c>
+      <c r="B202" s="21">
+        <v>2</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E202" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H202" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I202" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A203" s="18">
+        <v>12</v>
+      </c>
+      <c r="B203" s="21">
+        <v>2</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G203" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H203" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I203" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="18">
+        <v>13</v>
+      </c>
+      <c r="B204" s="21">
+        <v>2</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H204" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I204" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205" s="18">
+        <v>14</v>
+      </c>
+      <c r="B205" s="21">
+        <v>2</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E205" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G205" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H205" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I205" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" s="18">
+        <v>15</v>
+      </c>
+      <c r="B206" s="21">
+        <v>2</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H206" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I206" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A207" s="18">
+        <v>16</v>
+      </c>
+      <c r="B207" s="21">
+        <v>2</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G207" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H207" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I207" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A208" s="18">
+        <v>17</v>
+      </c>
+      <c r="B208" s="21">
+        <v>2</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E208" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H208" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I208" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="18">
+        <v>18</v>
+      </c>
+      <c r="B209" s="21">
+        <v>2</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E209" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G209" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H209" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I209" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="18">
+        <v>19</v>
+      </c>
+      <c r="B210" s="21">
+        <v>2</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E210" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H210" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I210" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="18">
+        <v>20</v>
+      </c>
+      <c r="B211" s="18">
+        <v>3</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F211" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G211" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I211" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212" s="21">
+        <v>21</v>
+      </c>
+      <c r="B212" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G212" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H212" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I212" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="21">
+        <v>22</v>
+      </c>
+      <c r="B213" s="21">
+        <v>2000</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E213" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G213" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H213" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I213" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A214" s="21">
+        <v>23</v>
+      </c>
+      <c r="B214" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F214" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G214" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H214" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="18">
+        <v>24</v>
+      </c>
+      <c r="B215" s="18">
+        <v>3010</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F215" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G215" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I215" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A216" s="21">
+        <v>25</v>
+      </c>
+      <c r="B216" s="21">
+        <v>4000</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F216" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G216" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H216" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I216" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="18">
+        <v>26</v>
+      </c>
+      <c r="B217" s="18">
+        <v>4010</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F217" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G217" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H217" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I217" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A218" s="18">
+        <v>27</v>
+      </c>
+      <c r="B218" s="18">
+        <v>4020</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G218" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H218" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I218" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A219" s="18">
+        <v>28</v>
+      </c>
+      <c r="B219" s="21">
+        <v>4030</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G219" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H219" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I219" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" s="18">
+        <v>29</v>
+      </c>
+      <c r="B220" s="18">
+        <v>4040</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E220" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F220" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G220" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H220" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I220" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="18">
+        <v>30</v>
+      </c>
+      <c r="B221" s="18">
+        <v>4050</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F221" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G221" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H221" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I221" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="18">
+        <v>31</v>
+      </c>
+      <c r="B222" s="18">
+        <v>4060</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F222" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G222" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H222" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I222" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="18">
+        <v>32</v>
+      </c>
+      <c r="B223" s="18">
+        <v>4070</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F223" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G223" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H223" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I223" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="18">
+        <v>33</v>
+      </c>
+      <c r="B224" s="18">
+        <v>4080</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" s="18"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="18"/>
+      <c r="H224" s="18"/>
+      <c r="I224" s="18"/>
+    </row>
+    <row r="225" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A225" s="18">
+        <v>34</v>
+      </c>
+      <c r="B225" s="21">
+        <v>4090</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E225" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G225" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H225" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I225" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="18">
+        <v>35</v>
+      </c>
+      <c r="B226" s="18">
+        <v>4100</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E226" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F226" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G226" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H226" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I226" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="18">
+        <v>36</v>
+      </c>
+      <c r="B227" s="18">
+        <v>4110</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F227" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G227" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H227" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I227" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="18">
+        <v>37</v>
+      </c>
+      <c r="B228" s="18">
+        <v>4120</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
+    </row>
+    <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229" s="18">
+        <v>38</v>
+      </c>
+      <c r="B229" s="18">
+        <v>4130</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F229" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G229" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I229" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A230" s="18">
+        <v>39</v>
+      </c>
+      <c r="B230" s="18">
+        <v>4140</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E230" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F230" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G230" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H230" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I230" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="18">
+        <v>40</v>
+      </c>
+      <c r="B231" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F231" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G231" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I231" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="18">
+        <v>41</v>
+      </c>
+      <c r="B232" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C232" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E232" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F232" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G232" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H232" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I232" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A191:I191"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A148:I148"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" s="19" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="19" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/Project- 1 Saucedemo.xlsx
+++ b/Project/Project- 1 Saucedemo.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20115" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="Test case" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
+    <sheet name="Defect report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="299">
   <si>
     <t>Discription</t>
   </si>
@@ -791,13 +792,136 @@
   </si>
   <si>
     <t xml:space="preserve">it should be open same image </t>
+  </si>
+  <si>
+    <t>Test summary</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect type</t>
+  </si>
+  <si>
+    <t>Defect severity</t>
+  </si>
+  <si>
+    <t>Defect priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attachement</t>
+  </si>
+  <si>
+    <t>functionality,security</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Chandni Pandya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mTS4ZvbhnDcMsilvzgSXXMMq50yHWJAK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>usability,functionality</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ydo_eyaZWYfnYPQM15cBXsq_SA65jpIU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IR-UrRZTy-Y5zpABlQ_BcdFGo0gcwWpN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VaNBfGyKeotappghbKqsF3Xsl9oiSeSf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uBC5RVEfS0DBXGdRBmlwu3TDv5OZzqAi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XLNnOUJLQ8CJPvzb7oDm1aK04UJ0_JlM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16l2hbJ87KG_FIyloS-4Lp7MzsoT84y4L/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j0K6MPKP0N1iCV85scE62KwDzakPcsob/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hVAI2hanPNsgGWYaZCXZu5DcNFBQF5KB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gEwVN9lFbnCK26LM196mKMvwmhhIwerz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o1lStrTYXnJlzczGVDRnPcX71k3Gaw89/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z7zRTNO_K9tPbfSi8NPZ0pzW6xUQCbhP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gUBxh3t7GOiolI2U1M-dUAkjRZLRAOtv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x_hLd2mLtTG8dX4Di_L75X6DMPaGYlGa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W2XpnMiIvF0yqDE6B-NZLbSWJPgo_mXq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17Tn20oJAP9sKMy9fdbNUIAWvbIazvNCQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oMrskgvnxLu-3D6vs2LBg-kyYiZOEQyR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qMaMOuC-PS53jA7_vseQM-H3B8qpgXOA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YkkX2bD7CNmShlNTM2N-1-ily3yHzYRw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rLRl3CEr92MFRb2-bMPfnL1QAh1UhvUo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZADeerPe9g_bC7IN9EDdRMU6xcwrciot/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>GUI,usability,functionality</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10BsB_YSYs2vjoXi28WNSGox8kix3_Iln/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +954,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1000,10 +1132,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1099,6 +1232,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,7 +1279,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2804,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,17 +2995,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
@@ -4042,17 +4186,17 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
@@ -4607,17 +4751,17 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="55"/>
       <c r="J68" s="39"/>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5637,17 +5781,17 @@
     </row>
     <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="54"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="58"/>
     </row>
     <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
@@ -6824,17 +6968,17 @@
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="45"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="49"/>
     </row>
     <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -7969,17 +8113,17 @@
     </row>
     <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="191" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B191" s="44"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="44"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="44"/>
-      <c r="I191" s="45"/>
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="49"/>
     </row>
     <row r="192" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
@@ -9162,34 +9306,1516 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A22"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" s="19" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="19" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18">
+        <v>401</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
+        <v>403</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6">
+        <v>404</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>405</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
+        <v>406</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6">
+        <v>407</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6">
+        <v>408</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6">
+        <v>409</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6">
+        <v>410</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6">
+        <v>411</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6">
+        <v>412</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6">
+        <v>413</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6">
+        <v>414</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>500</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6">
+        <v>600</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
+    <col min="5" max="5" width="35.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="19"/>
+    <col min="13" max="13" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="75" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>+A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A23" si="0">+A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>+A7+13</f>
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>27</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M20" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M23" r:id="rId22"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>